--- a/gameserver/src/main/resources/gameData/gameRole.model.RoleClass.xlsx
+++ b/gameserver/src/main/resources/gameData/gameRole.model.RoleClass.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>id</t>
   </si>
@@ -37,16 +37,31 @@
     <t>战士</t>
   </si>
   <si>
+    <t>1,2</t>
+  </si>
+  <si>
     <t>牧师</t>
   </si>
   <si>
+    <t>11,12</t>
+  </si>
+  <si>
     <t>法师</t>
   </si>
   <si>
+    <t>3,4,7</t>
+  </si>
+  <si>
     <t>猎人</t>
   </si>
   <si>
+    <t>8,10</t>
+  </si>
+  <si>
     <t>死亡骑士</t>
+  </si>
+  <si>
+    <t>5,6</t>
   </si>
 </sst>
 </file>
@@ -54,9 +69,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -68,6 +83,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -76,38 +122,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,59 +219,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -181,36 +226,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -221,187 +236,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,21 +427,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -441,6 +441,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,15 +469,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -480,6 +480,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,8 +513,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,10 +535,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -532,133 +547,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -741,7 +756,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1023,7 +1038,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1064,8 +1079,8 @@
       <c r="E2">
         <v>80</v>
       </c>
-      <c r="F2" s="1">
-        <v>0.0430555555555556</v>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1073,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -1084,8 +1099,8 @@
       <c r="E3">
         <v>20</v>
       </c>
-      <c r="F3" s="1">
-        <v>0.466666666666667</v>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1093,7 +1108,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -1104,8 +1119,8 @@
       <c r="E4">
         <v>20</v>
       </c>
-      <c r="F4" s="2">
-        <v>0.127858796296296</v>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1113,7 +1128,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -1124,8 +1139,8 @@
       <c r="E5">
         <v>40</v>
       </c>
-      <c r="F5" s="1">
-        <v>0.340277777777778</v>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1133,7 +1148,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -1144,8 +1159,8 @@
       <c r="E6">
         <v>50</v>
       </c>
-      <c r="F6" s="1">
-        <v>0.2125</v>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
